--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1916178.777023269</v>
+        <v>2024820.938326082</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9924083.927300697</v>
+        <v>9929577.573289115</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.25821665404656</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>283.8239022678626</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>96.15298256781398</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>215.0606220205729</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>132.4350189827602</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>208.8990535094716</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.40709060044652</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>113.4584518119536</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.1623266599244</v>
+        <v>146.6817369949114</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>18.1132343985079</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>32.20212611119594</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187847</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>42.71572132711237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>54.27601060788857</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1813,16 +1815,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214482</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>107.1685137621102</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.5380597272483</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892429067</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>140.7944235414531</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>77.3950726440254</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>112.2919725119092</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>104.1233804225814</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428163</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3907,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>197.9659484508405</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>153.5899618586515</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>826.9614971286078</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.01262627016</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.01262627016</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.01262627016</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.1991671823603</v>
+        <v>614.3137812221298</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>445.3775982942229</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>295.2609588818872</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>295.2609588818872</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>148.3710113839768</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>148.3710113839768</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1316.629762054147</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>1316.629762054147</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>1316.629762054147</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W4" t="n">
-        <v>1316.629762054147</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X4" t="n">
-        <v>1088.64021115613</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="Y4" t="n">
-        <v>867.8476320126</v>
+        <v>795.9622460523696</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.035030689734</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4568,19 +4570,19 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>2351.330183441093</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>788.8276219385415</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="C7" t="n">
-        <v>619.8914390106346</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106346</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282415</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1581.489462902329</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1358.510982097065</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.258216810329</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="W7" t="n">
-        <v>1419.258216810329</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="X7" t="n">
-        <v>1191.268665912311</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="Y7" t="n">
-        <v>970.4760867687812</v>
+        <v>848.6000654573724</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>643.1898500774754</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>474.2536671495685</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>324.1370277372328</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>324.1370277372328</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>324.1370277372328</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>824.8383149077151</v>
       </c>
       <c r="X10" t="n">
-        <v>847.6968360498105</v>
+        <v>824.8383149077151</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.9042569062804</v>
+        <v>824.8383149077151</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168592</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,16 +5077,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>470.7064074803617</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5449,34 +5451,34 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487573</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510514</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y16" t="n">
         <v>1280.315625093766</v>
@@ -5495,19 +5497,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,7 +5548,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5595,13 +5597,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5650,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400803</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121734</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121734</v>
+        <v>762.547769317909</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121734</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270534</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570826</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885337</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358027</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832672</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487576</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510517</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854715</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648828</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611868</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138502</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557032</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6069,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1090.767110287002</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>921.8309273590949</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1272.415575117241</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,16 +6451,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6634,37 +6636,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,40 +6946,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468472</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,22 +7189,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7597,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7837,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883071081</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>171.4336447811486</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226779593</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>111.4161395899846</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>16.89590291932089</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392193322</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>7.821049476759271</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>113.417682877128</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>121.5862749664557</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>85.45266000108626</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>20.61870490125426</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>868193.298007621</v>
+        <v>874135.2255086917</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>853603.36932463</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853603.36932463</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
-      <c r="D4" t="n">
-        <v>86084.45926805865</v>
-      </c>
       <c r="E4" t="n">
-        <v>6897.42449670748</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707481</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707408</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707482</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707295</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707406</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670739</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-764870.0439423911</v>
+        <v>-764870.0439423906</v>
       </c>
       <c r="C6" t="n">
-        <v>349881.7396335287</v>
+        <v>349881.7396335285</v>
       </c>
       <c r="D6" t="n">
-        <v>188083.6986352089</v>
+        <v>349881.7396335286</v>
       </c>
       <c r="E6" t="n">
-        <v>131570.2036550344</v>
+        <v>-50502.77616215598</v>
       </c>
       <c r="F6" t="n">
-        <v>456982.6654623898</v>
+        <v>456982.6654623901</v>
       </c>
       <c r="G6" t="n">
-        <v>456982.6654623898</v>
+        <v>456982.6654623899</v>
       </c>
       <c r="H6" t="n">
         <v>456982.6654623899</v>
       </c>
       <c r="I6" t="n">
+        <v>456982.66546239</v>
+      </c>
+      <c r="J6" t="n">
+        <v>289377.4876524074</v>
+      </c>
+      <c r="K6" t="n">
+        <v>456982.6654623898</v>
+      </c>
+      <c r="L6" t="n">
         <v>456982.6654623899</v>
       </c>
-      <c r="J6" t="n">
-        <v>289377.4876524075</v>
-      </c>
-      <c r="K6" t="n">
-        <v>456982.6654623901</v>
-      </c>
-      <c r="L6" t="n">
-        <v>408688.6954541994</v>
-      </c>
       <c r="M6" t="n">
-        <v>371927.6375268779</v>
+        <v>324375.3717334634</v>
       </c>
       <c r="N6" t="n">
-        <v>456982.6654623899</v>
+        <v>456982.66546239</v>
       </c>
       <c r="O6" t="n">
-        <v>456982.6654623898</v>
+        <v>456982.66546239</v>
       </c>
       <c r="P6" t="n">
-        <v>456982.6654623901</v>
+        <v>456982.6654623896</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340.475625009434</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.85913935282031</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27430,7 +27432,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>51.09852658731489</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,10 +27590,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>5.68807397663906</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>232.8378727882474</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>140.3419152079414</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>140.2553697612909</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>138.6791915118744</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.5687740185446</v>
+        <v>223.0493636835576</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>148.1933656462963</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>193.5075292778412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940673</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>210.394892436556</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>502.5232631188761</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532624</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543356</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>466.4238188159145</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>304.632674239197</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>491.0077074256851</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060508</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962288</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899162</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>330.3773834724256</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37004,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060406</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>68.26085851453769</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>368.5488557045459</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790297</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312441</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997665</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024820.938326082</v>
+        <v>2020683.781075931</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9929577.573289115</v>
+        <v>9929577.573289113</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>283.8239022678626</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>37.2384520659815</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>96.15298256781398</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>67.22331801800679</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>82.05525928392689</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>208.8990535094716</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>89.63488594114024</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>54.40709060044652</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>192.2415752082169</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>146.6817369949114</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>18.1132343985079</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.4147107719971</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>54.27601060788857</v>
+        <v>25.07757910977637</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>81.13583111599705</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.1685137621102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>129.5380597272483</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>71.79687029690999</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>140.7944235414531</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>116.287325111933</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>144.8592102470419</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>112.2919725119092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.1078891637031</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>59.96838802184498</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>282.8547581679345</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.9659484508405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>5.89033710687798</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>153.5899618586515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.924014069019</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>826.9614971286078</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>1285.984832846309</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1582.523854133141</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1582.523854133141</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.3137812221298</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>445.3775982942229</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>295.2609588818872</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>295.2609588818872</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>148.3710113839768</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>148.3710113839768</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1244.744376093917</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.744376093917</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1016.7548251959</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>795.9622460523696</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1008.943039642068</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>623.1547870438242</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>212.1688822542166</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>200.5045360189096</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.330183441093</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.864425180013</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,7 +4649,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9516006271326</v>
+        <v>903.4321187182921</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>903.4321187182921</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>753.3154793059564</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>605.4023857235633</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>458.5124382256529</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>290.5259735339315</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>141.7870753974377</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1581.489462902329</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1358.510982097065</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1069.392644600902</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>1069.392644600902</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W7" t="n">
-        <v>1069.392644600902</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X7" t="n">
-        <v>1069.392644600902</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.6000654573724</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1599.080600298115</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>1230.118083357703</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>1053.868699492391</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>668.0804468941469</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>257.0945421045394</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>245.4301958692323</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000046</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1599.080600298115</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>1599.080600298115</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>643.1898500774754</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>474.2536671495685</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>324.1370277372328</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>324.1370277372328</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>324.1370277372328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8383149077151</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8383149077151</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8383149077151</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.459942472577</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>868.6673633290469</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.566649095898</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>4435.461999481584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.547769317909</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>762.547769317909</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D22" t="n">
-        <v>762.547769317909</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1090.767110287002</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>921.8309273590949</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015259</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1272.415575117241</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.0653816078141</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797705</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X28" t="n">
-        <v>1030.857960751344</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y28" t="n">
-        <v>810.0653816078141</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7736,16 +7736,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>408.6744289523867</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>241.4783296672667</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>99.76649850946478</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
   </sheetData>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363237</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9556134883071081</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>171.4336447811486</v>
+        <v>200.6320762792608</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>86.11098998263078</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.4161395899846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>16.89590291932089</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.821049476759271</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>107.2784330767861</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>113.417682877128</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>85.45266000108626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>3.329716221309639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.61870490125426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.37549921168754</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049982</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
@@ -26447,13 +26447,13 @@
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-764870.0439423906</v>
+        <v>-764870.0439423907</v>
       </c>
       <c r="C6" t="n">
-        <v>349881.7396335285</v>
+        <v>349881.7396335287</v>
       </c>
       <c r="D6" t="n">
         <v>349881.7396335286</v>
       </c>
       <c r="E6" t="n">
-        <v>-50502.77616215598</v>
+        <v>-50850.15541651273</v>
       </c>
       <c r="F6" t="n">
-        <v>456982.6654623901</v>
+        <v>456635.286208033</v>
       </c>
       <c r="G6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.286208033</v>
       </c>
       <c r="H6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.2862080332</v>
       </c>
       <c r="I6" t="n">
-        <v>456982.66546239</v>
+        <v>456635.2862080332</v>
       </c>
       <c r="J6" t="n">
-        <v>289377.4876524074</v>
+        <v>289030.1083980505</v>
       </c>
       <c r="K6" t="n">
-        <v>456982.6654623898</v>
+        <v>456635.286208033</v>
       </c>
       <c r="L6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.286208033</v>
       </c>
       <c r="M6" t="n">
-        <v>324375.3717334634</v>
+        <v>324027.9924791063</v>
       </c>
       <c r="N6" t="n">
-        <v>456982.66546239</v>
+        <v>456635.286208033</v>
       </c>
       <c r="O6" t="n">
-        <v>456982.66546239</v>
+        <v>456635.2862080328</v>
       </c>
       <c r="P6" t="n">
-        <v>456982.6654623896</v>
+        <v>456635.286208033</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,31 +26977,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>70.85913935282031</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>344.6919180062803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09852658731489</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>151.361335334088</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>218.9632932784785</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>140.3419152079414</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>15.16170926276034</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>140.2553697612909</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>108.7769773541885</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>223.0493636835576</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>148.1933656462963</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>54.72293255183087</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>448.9178583921318</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940673</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157701</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>210.394892436556</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N45" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>622.4553810291977</v>
       </c>
       <c r="O3" t="n">
-        <v>336.3802954844301</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>491.0077074256851</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>314.9434509778015</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962288</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937518</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>68.26085851453769</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38104,19 +38104,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2020683.781075931</v>
+        <v>2022444.311378716</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>37.2384520659815</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>237.9193059650775</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.22331801800679</v>
+        <v>67.22331801800635</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>82.05525928392689</v>
+        <v>82.05525928392645</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>50.98074812542813</v>
       </c>
       <c r="I7" t="n">
-        <v>89.63488594114024</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.658084792058</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>192.2415752082169</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>197.4147107719971</v>
+        <v>197.4147107719976</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>26.70391688093253</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>25.07757910977637</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.13583111599705</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>147.3642529779079</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>79.41314830963806</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>246.4755938422903</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>71.79687029690999</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>116.287325111933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>144.8592102470419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>120.7871326503968</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.67842139643643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>113.5028334418564</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.8547581679345</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>5.89033710687798</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>116.287325111933</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.250531453059</v>
+        <v>1862.313924116173</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.984832846309</v>
+        <v>1504.048225509422</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1118.259972911178</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>707.2740681215703</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>291.5693178458591</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>458.7060632252735</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
         <v>1843.432194560477</v>
@@ -4482,55 +4482,55 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="Y4" t="n">
         <v>1269.331624317611</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1367.208738248819</v>
+        <v>1367.208738248818</v>
       </c>
       <c r="C5" t="n">
-        <v>1367.208738248819</v>
+        <v>1367.208738248818</v>
       </c>
       <c r="D5" t="n">
         <v>1008.943039642068</v>
       </c>
       <c r="E5" t="n">
-        <v>623.1547870438242</v>
+        <v>623.1547870438237</v>
       </c>
       <c r="F5" t="n">
-        <v>212.1688822542166</v>
+        <v>212.1688822542162</v>
       </c>
       <c r="G5" t="n">
-        <v>200.5045360189096</v>
+        <v>200.5045360189091</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312941</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1753.808578312941</v>
+        <v>1753.80857831294</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>575.6256845144201</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.4321187182921</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C7" t="n">
-        <v>903.4321187182921</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D7" t="n">
-        <v>753.3154793059564</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E7" t="n">
-        <v>605.4023857235633</v>
+        <v>249.6324392431136</v>
       </c>
       <c r="F7" t="n">
-        <v>458.5124382256529</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="G7" t="n">
-        <v>290.5259735339315</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="H7" t="n">
-        <v>141.7870753974377</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1533.862713590079</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1305.873162692062</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1085.080583548532</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.134398099142</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D8" t="n">
-        <v>1053.868699492391</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E8" t="n">
-        <v>668.0804468941469</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>257.0945421045394</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>245.4301958692323</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4843,13 +4843,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163263</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,16 +4886,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4962,25 +4962,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5363,22 +5363,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,40 +6235,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E31" t="n">
-        <v>215.8238677453423</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F31" t="n">
-        <v>215.8238677453423</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G31" t="n">
-        <v>215.8238677453423</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.3100179938673</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372933</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>853.594109445026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326902</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502971</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>408.6744289523867</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>241.4783296672667</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>99.76649850946478</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487568</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.378057281681</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346703</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203173</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>35.91627445172475</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363237</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>154.0169020165192</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>200.6320762792608</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.11098998263078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>71.22040037418685</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>86.11098998263078</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>39.70888054695388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>73.62417772602126</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>107.2784330767861</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>19.50758019582713</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0.5874149221290992</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>109.4223302771038</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>35.11263957635596</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>3.329716221309639</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>75.37549921168754</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26432,7 +26432,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26441,7 +26441,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
@@ -26456,10 +26456,10 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-764870.0439423907</v>
+        <v>-764870.0439423905</v>
       </c>
       <c r="C6" t="n">
-        <v>349881.7396335287</v>
+        <v>349881.7396335285</v>
       </c>
       <c r="D6" t="n">
-        <v>349881.7396335286</v>
+        <v>349881.7396335285</v>
       </c>
       <c r="E6" t="n">
-        <v>-50850.15541651273</v>
+        <v>-50537.51408759138</v>
       </c>
       <c r="F6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="G6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="H6" t="n">
-        <v>456635.2862080332</v>
+        <v>456947.9275369543</v>
       </c>
       <c r="I6" t="n">
-        <v>456635.2862080332</v>
+        <v>456947.9275369541</v>
       </c>
       <c r="J6" t="n">
-        <v>289030.1083980505</v>
+        <v>289342.7497269717</v>
       </c>
       <c r="K6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369541</v>
       </c>
       <c r="L6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="M6" t="n">
-        <v>324027.9924791063</v>
+        <v>324340.6338080279</v>
       </c>
       <c r="N6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="O6" t="n">
-        <v>456635.2862080328</v>
+        <v>456947.9275369543</v>
       </c>
       <c r="P6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369544</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>344.6919180062803</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>63.09924659732792</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.361335334088</v>
+        <v>151.3613353340884</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>218.9632932784785</v>
+        <v>218.9632932784789</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>96.27076102970071</v>
       </c>
       <c r="I7" t="n">
-        <v>15.16170926276034</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802038</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>108.7769773541885</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>54.72293255183087</v>
+        <v>54.72293255183041</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32083,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>614.7544723218309</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>222.5037706952095</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291977</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>340.604398260004</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>476.2000925419567</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
